--- a/Documentation/ShipData_for_reference.xlsx
+++ b/Documentation/ShipData_for_reference.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="101">
   <si>
     <t>Corvette</t>
   </si>
@@ -64,19 +64,282 @@
   </si>
   <si>
     <t>Droid control ship</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"name": "Star Destroyer", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "model": "Imperial I-class Star Destroyer", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "manufacturer": "Kuat Drive Yards", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "cost_in_credits": "150000000", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "length": "1,600", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "max_atmosphering_speed": "975", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "crew": "47060", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "passengers": "0", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "cargo_capacity": "36000000", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"name": "Republic attack cruiser", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "cost_in_credits": "59000000", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "length": "1137", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "crew": "7400", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "passengers": "2000", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "cargo_capacity": "20000000", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"name": "CR90 corvette", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "cost_in_credits": "3500000", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "length": "150", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "max_atmosphering_speed": "950", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "crew": "165", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "passengers": "600", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "cargo_capacity": "3000000"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"name": "Sentinel-class landing craft", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "cost_in_credits": "240000", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "length": "38", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "max_atmosphering_speed": "1000", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "crew": "5", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "passengers": "75", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "cargo_capacity": "180000", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"name": "Death Star", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "cost_in_credits": "1000000000000", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "length": "120000", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "max_atmosphering_speed": "n/a", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "crew": "342953", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "passengers": "843342", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "cargo_capacity": "1000000000000", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   "name": "Millennium Falcon", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "cost_in_credits": "100000", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "length": "34.37", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "max_atmosphering_speed": "1050", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "crew": "4", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "passengers": "6", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "cargo_capacity": "100000"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"name": "B-wing", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "cost_in_credits": "220000", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "length": "16.9", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "crew": "1", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "cargo_capacity": "45", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"name": "Jedi starfighter", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "cost_in_credits": "180000", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "length": "8", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "max_atmosphering_speed": "1150", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "cargo_capacity": "60", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"name": "Executor", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "cost_in_credits": "1143350000", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "length": "19000", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "crew": "279144", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "passengers": "38000", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "cargo_capacity": "250000000", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"name": "Rebel transport", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "cost_in_credits": "unknown", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "length": "90", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "max_atmosphering_speed": "650", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "crew": "6", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "passengers": "90", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "cargo_capacity": "19000000", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"name": "Slave 1", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "length": "21.5", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "cargo_capacity": "70000", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"name": "EF76 Nebulon-B escort frigate", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "cost_in_credits": "8500000", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "length": "300", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "max_atmosphering_speed": "800", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "crew": "854", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "cargo_capacity": "6000000", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "name": "Calamari Cruiser", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "cost_in_credits": "104000000", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "length": "1200", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "crew": "5400", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "passengers": "1200", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "cargo_capacity": "unknown",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"name": "Droid control ship", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "length": "3170", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "crew": "175", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "passengers": "139000", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "cargo_capacity": "4000000000", </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -99,8 +362,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,33 +650,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="38.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="38.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -447,9 +716,6 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
-        <v>5</v>
-      </c>
       <c r="O1" t="s">
         <v>13</v>
       </c>
@@ -457,7 +723,369 @@
         <v>14</v>
       </c>
     </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="F9" s="1"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="B14" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="B15" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="B16" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documentation/ShipData_for_reference.xlsx
+++ b/Documentation/ShipData_for_reference.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B96FDD-57CF-461A-A8A1-3B1A5DB1B643}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="975" yWindow="1080" windowWidth="19500" windowHeight="9030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="101">
   <si>
     <t>Corvette</t>
   </si>
@@ -327,7 +328,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -342,12 +343,24 @@
       <name val="Arial Unicode MS"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -362,13 +375,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -649,11 +672,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -812,46 +835,46 @@
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="O4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="P4" s="4" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1032,7 +1055,16 @@
       </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="F9" s="1"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
       <c r="O9" s="1"/>
     </row>
     <row r="10" spans="1:16">
@@ -1060,7 +1092,7 @@
       </c>
     </row>
     <row r="14" spans="1:16">
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1074,14 +1106,92 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="1:2">
       <c r="B17" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="1:2">
       <c r="B18" s="1" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="B19" s="5"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="4" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
